--- a/biology/Zoologie/Bruchomyiinae/Bruchomyiinae.xlsx
+++ b/biology/Zoologie/Bruchomyiinae/Bruchomyiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bruchomyiinae sont une sous-famille de diptères nématocères de la famille des Psychodidae.
 Cette sous-famille comprend 3 genres : Bruchomyia Alexander, Eutonnoiria Alexander, et Nemapalpus Macquart qui se différencient, entre autres, par le nombre de segments que comptent leurs antennes :
@@ -518,7 +530,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">genre Nemapalpus Macquart, 1838
 Nemapalpus acaenohybos Quates &amp; Alexander, 2000 (Brésil)
@@ -571,7 +585,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr + en) Référence ITIS : Bruchomyiinae
 ITIS utilise le nom de genre Nemopalpus, syn. de Nemapalpus et ne cite qu'une espèce : Nemopalpus nearcticus Young, 1974. 
